--- a/biology/Botanique/Villa_Eilenroc/Villa_Eilenroc.xlsx
+++ b/biology/Botanique/Villa_Eilenroc/Villa_Eilenroc.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Villa Eilenroc  est une demeure française d'exception de style néoclassique située au milieu d'un parc de onze hectares, en bordure de mer, au cap d'Antibes sur la Côte d'Azur.
@@ -515,7 +527,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Alors que la haute société européenne passe l’hiver sur la Riviera méditerranéenne, le riche hollandais ex-gouverneur des Indes néerlandaises Hugh-Hope Loudon fait construire cette luxueuse résidence par l'architecte Charles Garnier entre 1860 et 1867. Il la baptise « Eilenroc », anagramme de Cornélie, le prénom de son épouse. 
 En 1873, la propriété est vendue au riche écossais James Wyllie qui fait aménager le parc par des jardiniers aussi célèbres que Ringuisen. À son décès en 1908, le domaine est vendu à Sir Coleridge Kennard puis au couple Sudreau suivi par le couple américain Louis Dudley Beaumont et Hélène Thomas en 1927.
